--- a/Plan de Pruebas.xlsx
+++ b/Plan de Pruebas.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Pruebas GUIA-NoOficial" sheetId="1" r:id="rId1"/>
-    <sheet name="Supuestos" sheetId="3" r:id="rId2"/>
+    <sheet name="Estimacion - Desglose" sheetId="4" r:id="rId2"/>
+    <sheet name="Factor de Ajuste" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Supuestos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -279,8 +281,85 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jhon Sebastián Rodríguez Rodríguez</author>
+  </authors>
+  <commentList>
+    <comment ref="G40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>El esfuerzo, se refiere a las Horas/Hombre calculadas en la estimación para la realización de una actividad o varias actividades planeadas sin incluir el desfase (desviaciones) que puedan afectarlas durante su realización, es decir, se calcula como si fuese una realización "ideal" de la actividad.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es un valor porcentual que pretende reflejar el efecto de las desviaciones que normalmente se presentan en la estimación del esfuerzo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Es el esfuerzo calculado para realizar una actividad considerando los factores que pueden afectar la realización "ideal" de las actividades planeadas, dicho esfuerzo es el resultado de tomar el esfuerzo y multiplicarlo con los factores de ajuste que se identificaron para el proyecto. Es útil si para proyectos donde la restricción fija NO es la fecha de terminación.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jhon Sebastián Rodríguez Rodríguez</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Causales de desfase:
+https://wiki.choucairtesting.com/wiki/index.php/Clasificaci%C3%B3n_Desfases</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
   <si>
     <t>Informacion General</t>
   </si>
@@ -572,9 +651,6 @@
     <t>Documentación ambigua. Poco entendimiento del desarrollador frente a la solicitud del cliente</t>
   </si>
   <si>
-    <t>Revisar la documentación con el cliente y resolver las dudas de los requisitos mas definidos.</t>
-  </si>
-  <si>
     <t>Mantener documentación alineada y actualizada con todo el equipo. 
 Distribuir las actividades asignadas del miembro clave a los otros integrantes del equipo.</t>
   </si>
@@ -636,12 +712,420 @@
 Se cuenta con los desarrollos en su versión final para la ejecución de la prueba.
 El equipo de desarrollo tendrá la disposición de solucionar y despejar lo más pronto posible las dudas e inconvenientes que se presenten relacionadas con el ambiente de pruebas y temas del negocio.</t>
   </si>
+  <si>
+    <t>Total dias</t>
+  </si>
+  <si>
+    <t>Horas total analistas x Día</t>
+  </si>
+  <si>
+    <t>Horas analista</t>
+  </si>
+  <si>
+    <t>Cantidad de analistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diligenciar </t>
+  </si>
+  <si>
+    <t>Esfuerzo mas probable</t>
+  </si>
+  <si>
+    <t>Esfuerzo mas Probable</t>
+  </si>
+  <si>
+    <t>Factor de ajuste</t>
+  </si>
+  <si>
+    <t>Factor de Ajuste</t>
+  </si>
+  <si>
+    <t>Esfuerzo estimado</t>
+  </si>
+  <si>
+    <t>Esfuerzo Total Estimado</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Gestion de proyecto/ Logistica</t>
+  </si>
+  <si>
+    <t>Cierre / Entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecucion </t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encuentra más información en: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://wiki.choucairtesting.com/wiki/index.php/Estimaci%C3%B3n_pruebas-_C%C3%A1lculo_de_esfuerzo,_fechas_pruebas_y_personas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://web.microsoftstream.com/channel/334be849-2f97-4271-8657-d254612e96c8</t>
+    </r>
+  </si>
+  <si>
+    <t>Planeacion</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos </t>
+  </si>
+  <si>
+    <t>Esfuerzo total de la actividad en Horas</t>
+  </si>
+  <si>
+    <t>Esfuerzo en 
+Horas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frecuencia / Casuistica 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Casos de prueba)</t>
+    </r>
+  </si>
+  <si>
+    <t>Etapa / Actividades</t>
+  </si>
+  <si>
+    <t>Causales de Desfase</t>
+  </si>
+  <si>
+    <t>Valor porcentual</t>
+  </si>
+  <si>
+    <t>Factor de ajuste se define por medio de:</t>
+  </si>
+  <si>
+    <r>
+      <t>Mala calidad de artefacto recibido-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <t>Porcentaje fijo establecido por cliente y choucair que puede ser del 35%</t>
+  </si>
+  <si>
+    <r>
+      <t>Alistamiento de ambientes-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ambientes QA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos historicos en base a proyectos anteriores teniendo en cuenta causales de desfase y porcentaje de factor de ajuste </t>
+  </si>
+  <si>
+    <r>
+      <t>Pendiente de Instalación Por Infraestructura-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infraestructura</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cambio de alcance-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gestion de la Demanda</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Riesgos de proyecto identificados y valorados </t>
+  </si>
+  <si>
+    <r>
+      <t>Administración y control de versiones o releases de software-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Versiones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desconocimiento negocio-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fabrica QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Incumplimiento en la entrega de artefactos(Pend Entrega del desarrollo)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gestión issues(Bloqueado por defecto)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desarrollo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inestabilidad del ambiente de pruebas durante la ejecución - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infraestructura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Actividades de SW o HW no planeadas-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infraestructura QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ejecución en ambientes compartidos-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release Management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Novedades equipo de trabajo, Actividades del proyecto no planeadas -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Eventos externos</t>
+  </si>
+  <si>
+    <t>Total Factor de ajuste para el tipo de prueba</t>
+  </si>
+  <si>
+    <t>&lt;=35%</t>
+  </si>
+  <si>
+    <t>&lt;=25%</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Revisión de documentación</t>
+  </si>
+  <si>
+    <t>Reunión de entendimiento</t>
+  </si>
+  <si>
+    <t>Elaboración de plan de pruebas</t>
+  </si>
+  <si>
+    <t>Reunión de aprobación del plan de pruebas</t>
+  </si>
+  <si>
+    <t>CP Funcionalidad Consultar Cursos Existentes</t>
+  </si>
+  <si>
+    <t>CP Funcionalidad Matricularse en nuevo curso</t>
+  </si>
+  <si>
+    <t>CP Funcionalidad Realizar el curso</t>
+  </si>
+  <si>
+    <t>Preparación de data para las pruebas</t>
+  </si>
+  <si>
+    <t>Prueba de humo</t>
+  </si>
+  <si>
+    <t>Ejecución Funcionalidad Consultar Cursos Existentes</t>
+  </si>
+  <si>
+    <t>Ejecución Funcionalidad Matricularse en nuevo curso</t>
+  </si>
+  <si>
+    <t>Ejecución Funcionalidad Realizar el curso</t>
+  </si>
+  <si>
+    <t>Pruebas de regresión</t>
+  </si>
+  <si>
+    <t>Informe de cierre</t>
+  </si>
+  <si>
+    <t>Gestión de defectos</t>
+  </si>
+  <si>
+    <t>Revisar la documentación con el cliente y resolver las dudas de los requisitos mal definidos.</t>
+  </si>
+  <si>
+    <t>de que trata las pruebas que vamos a realizar</t>
+  </si>
+  <si>
+    <t>que brinda choucair</t>
+  </si>
+  <si>
+    <t>conocer lo que se va a probar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +1250,130 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +1416,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1127,12 +1751,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1221,6 +1898,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,32 +2054,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,12 +2093,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,10 +2165,41 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1777,6 +2587,72 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65943</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flecha: a la derecha 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11EFA6-F96F-4D3C-A0D7-86F7F846B3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4637943" y="8594481"/>
+          <a:ext cx="593480" cy="146537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2085975</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2141,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2159,158 +3035,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="118" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="84"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
     </row>
     <row r="12" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -2326,76 +3202,76 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="42"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="42"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="42"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
@@ -2408,54 +3284,54 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="114"/>
     </row>
     <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
       <c r="I24" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="83"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="117"/>
     </row>
     <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="23" t="s">
         <v>15</v>
       </c>
@@ -2470,14 +3346,14 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="60" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
@@ -2493,14 +3369,14 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="60"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="2">
         <v>3</v>
       </c>
@@ -2512,18 +3388,18 @@
         <v>3</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="92"/>
+      <c r="D29" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="56"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="2">
         <v>3</v>
       </c>
@@ -2535,18 +3411,18 @@
         <v>3</v>
       </c>
       <c r="I29" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="92"/>
+      <c r="D30" s="89" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="2">
         <v>2</v>
       </c>
@@ -2558,18 +3434,18 @@
         <v>6</v>
       </c>
       <c r="I30" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="92" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="60"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="2">
         <v>3</v>
       </c>
@@ -2581,18 +3457,18 @@
         <v>9</v>
       </c>
       <c r="I31" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B32" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="60"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="2">
         <v>3</v>
       </c>
@@ -2620,14 +3496,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58" t="s">
+      <c r="C34" s="94"/>
+      <c r="D34" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="58"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="23" t="s">
         <v>15</v>
       </c>
@@ -2642,14 +3518,14 @@
       </c>
     </row>
     <row r="35" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="56"/>
+      <c r="B35" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="89"/>
       <c r="F35" s="2">
         <v>2</v>
       </c>
@@ -2665,14 +3541,14 @@
       </c>
     </row>
     <row r="36" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="56"/>
+      <c r="B36" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="89"/>
       <c r="F36" s="2">
         <v>2</v>
       </c>
@@ -2688,14 +3564,14 @@
       </c>
     </row>
     <row r="37" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="89"/>
       <c r="F37" s="2">
         <v>2</v>
       </c>
@@ -2711,10 +3587,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
@@ -2724,10 +3600,10 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
@@ -2750,11 +3626,11 @@
     </row>
     <row r="41" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="26" t="s">
         <v>21</v>
       </c>
@@ -2767,81 +3643,81 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="30" t="s">
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="48" t="s">
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="66"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="30" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2856,78 +3732,78 @@
     </row>
     <row r="49" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="42"/>
+      <c r="B51" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="76"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="42"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="76"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="42"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="76"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="42"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="76"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="54"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
     </row>
     <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
@@ -2942,142 +3818,142 @@
       <c r="I57" s="19"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="42"/>
+      <c r="B59" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="76"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="42"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="76"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="42"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="76"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="40"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="42"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="76"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="42"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="76"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="36"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="70"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="42"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="76"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="40"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="42"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="76"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="40"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="42"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="76"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="40"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="42"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="76"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="40"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="42"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="76"/>
     </row>
     <row r="70" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="45"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="79"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
@@ -3114,110 +3990,110 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="39"/>
+      <c r="B74" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="73"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="76"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="42"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="76"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="76"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="76"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="40"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="76"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="40"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="76"/>
     </row>
     <row r="81" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="70" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K81" s="71"/>
+      <c r="K81" s="105"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="76"/>
     </row>
     <row r="83" spans="2:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="45"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="79"/>
     </row>
     <row r="84" spans="2:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3263,22 +4139,14 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B51:I55"/>
-    <mergeCell ref="G42:G43"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B74:I83"/>
@@ -3287,11 +4155,19 @@
     <mergeCell ref="B58:I58"/>
     <mergeCell ref="B59:I63"/>
     <mergeCell ref="B65:I70"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I55"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:E43"/>
     <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
   </mergeCells>
   <conditionalFormatting sqref="H27:H32">
     <cfRule type="colorScale" priority="6">
@@ -3336,10 +4212,874 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15" style="30" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="24" style="30" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="123"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49">
+        <f>SUM(D4:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49">
+        <f>SUM(D9:D14)</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="120"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="51">
+        <v>1</v>
+      </c>
+      <c r="E9" s="51">
+        <v>3</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="51">
+        <v>1</v>
+      </c>
+      <c r="E10" s="51">
+        <v>3</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="51">
+        <v>3</v>
+      </c>
+      <c r="E11" s="51">
+        <v>3</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="51">
+        <v>1</v>
+      </c>
+      <c r="E12" s="51">
+        <v>3</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49">
+        <f>SUM(D16:D21)</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37">
+        <v>4</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37">
+        <v>3</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37">
+        <v>5</v>
+      </c>
+      <c r="E18" s="37">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49">
+        <f>SUM(D23:D28)</f>
+        <v>9</v>
+      </c>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37">
+        <v>2</v>
+      </c>
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37">
+        <v>2</v>
+      </c>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37">
+        <v>2</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49">
+        <f>SUM(D30:D33)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>3</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49">
+        <f>SUM(D35:D39)</f>
+        <v>3</v>
+      </c>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="37">
+        <v>3</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46">
+        <f>SUM(F8:F34)</f>
+        <v>32</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="44">
+        <f>D40*F42</f>
+        <v>11.2</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40">
+        <f>SUM(D40:D42)</f>
+        <v>43.2</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="121"/>
+      <c r="F46" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="122"/>
+      <c r="F47" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="122"/>
+      <c r="F48" s="33">
+        <f>F47*F46</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="122"/>
+      <c r="F49" s="32">
+        <f>D40/F47</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="G49" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G8:H22"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D48:E48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:J21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="98.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="56" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="D6" s="59">
+        <v>1</v>
+      </c>
+      <c r="E6" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="D7" s="124">
+        <v>2</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="D9" s="59">
+        <v>3</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="58"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="61">
+        <f>SUM(B6:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="E9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3361,6 +5101,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009208B2EE0F5E15408BCE2F9F97D74290" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7bb3702d21ea9e6034b1a57aee2993cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cbf8864f-6d57-4b2c-a1d3-c14747ac60ec" xmlns:ns4="99b8c022-ed84-4fde-a49b-72be6465f681" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f36a265cb7e1661e305397d322b275d" ns3:_="" ns4:_="">
     <xsd:import namespace="cbf8864f-6d57-4b2c-a1d3-c14747ac60ec"/>
@@ -3563,7 +5309,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3572,13 +5318,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{950420D9-0F1D-4446-A4D6-3D2569A821D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="99b8c022-ed84-4fde-a49b-72be6465f681"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cbf8864f-6d57-4b2c-a1d3-c14747ac60ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128C6CBE-EDB4-4A75-BDB1-4D2F43C7CBFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3597,27 +5354,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B3D4BD4-5C83-48CC-8300-C538210EE511}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{950420D9-0F1D-4446-A4D6-3D2569A821D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="99b8c022-ed84-4fde-a49b-72be6465f681"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cbf8864f-6d57-4b2c-a1d3-c14747ac60ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>